--- a/Project Outputs for dv_analog/BOM/dv_analog.xlsx
+++ b/Project Outputs for dv_analog/BOM/dv_analog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="16950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23295" windowHeight="16950"/>
   </bookViews>
   <sheets>
     <sheet name="dv_analog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Designator</t>
   </si>
@@ -62,7 +62,46 @@
     <t>2Т3117А/ПК "ОСМ"</t>
   </si>
   <si>
-    <t>R73</t>
+    <t>VD1</t>
+  </si>
+  <si>
+    <t>Диодная сборка</t>
+  </si>
+  <si>
+    <t>BAV70</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>Источник опорного напряжения</t>
+  </si>
+  <si>
+    <t>ADR390</t>
+  </si>
+  <si>
+    <t>U1, U2, U3, U4, U5, U6</t>
+  </si>
+  <si>
+    <t>Операционный усилитель</t>
+  </si>
+  <si>
+    <t>ADA4530</t>
+  </si>
+  <si>
+    <t>RK1, RK2</t>
+  </si>
+  <si>
+    <t>Термометр сопротивления</t>
+  </si>
+  <si>
+    <t>Pt1000</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>R83</t>
   </si>
   <si>
     <t>SMD-резистор</t>
@@ -74,55 +113,49 @@
     <t>3k3</t>
   </si>
   <si>
-    <t>R71</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>R69, R70, R72</t>
+    <t>R16, R79, R80, R82</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
-    <t>R67, R68</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R8, R9, R19, R20, R30, R31, R41, R42, R52, R53, R63, R64</t>
-  </si>
-  <si>
-    <t>1к</t>
-  </si>
-  <si>
-    <t>R7, R18, R29, R40, R51, R62</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>R5, R16, R27, R38, R49, R60</t>
-  </si>
-  <si>
-    <t>30k</t>
-  </si>
-  <si>
-    <t>R3, R4, R6, R10, R14, R15, R17, R21, R25, R26, R28, R32, R36, R37, R39, R43, R47, R48, R50, R54, R58, R59, R61, R65</t>
+    <t>R13, R26, R39, R52, R65, R78</t>
+  </si>
+  <si>
+    <t>64k</t>
+  </si>
+  <si>
+    <t>R8, R12, R21, R25, R34, R38, R47, R51, R60, R64, R73, R77</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>R7, R11, R20, R24, R33, R37, R46, R50, R59, R63, R72, R76</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R5, R6, R10, R18, R19, R23, R31, R32, R36, R44, R45, R49, R57, R58, R62, R70, R71, R75</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>R3, R4, R9, R16, R17, R22, R29, R30, R35, R42, R43, R48, R55, R56, R61, R68, R69, R74</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>R1, R2, R11, R12, R13, R22, R23, R24, R33, R34, R35, R44, R45, R46, R55, R56, R57, R66</t>
+    <t>R1, R2, R14, R15, R27, R28, R40, R41, R53, R54, R66, R67</t>
   </si>
   <si>
     <t>10M</t>
   </si>
   <si>
-    <t>L1, L2</t>
+    <t>L1</t>
   </si>
   <si>
     <t>SMD-индуктивность</t>
@@ -152,7 +185,7 @@
     <t>1487УД2У "ВП"</t>
   </si>
   <si>
-    <t>C5, C12, C19, C26, C33, C40</t>
+    <t>C50, C51, C52</t>
   </si>
   <si>
     <t>SMD-конденсатор</t>
@@ -161,28 +194,28 @@
     <t>К10-79</t>
   </si>
   <si>
-    <t>15нФ</t>
-  </si>
-  <si>
-    <t>C4, C7, C11, C14, C18, C21, C25, C28, C32, C35, C39, C42</t>
+    <t>22мкФ</t>
+  </si>
+  <si>
+    <t>C5, C7, C13, C15, C21, C23, C29, C31, C37, C39, C45, C47</t>
+  </si>
+  <si>
+    <t>1 мкФ</t>
+  </si>
+  <si>
+    <t>C3, C6, C8, C11, C14, C16, C19, C22, C24, C27, C30, C32, C35, C38, C40, C43, C46, C48</t>
   </si>
   <si>
     <t>0,22мкФ</t>
   </si>
   <si>
-    <t>C3, C6, C10, C13, C17, C20, C24, C27, C31, C34, C38, C41</t>
-  </si>
-  <si>
-    <t>0,1мкФ</t>
-  </si>
-  <si>
-    <t>C2, C9, C16, C23, C30, C37</t>
-  </si>
-  <si>
-    <t>13пФ</t>
-  </si>
-  <si>
-    <t>C1, C8, C15, C22, C29, C36</t>
+    <t>C2, C4, C10, C12, C18, C20, C26, C28, C34, C36, C42, C44, C49</t>
+  </si>
+  <si>
+    <t>0,1 мкФ</t>
+  </si>
+  <si>
+    <t>C1, C9, C17, C25, C33, C41</t>
   </si>
   <si>
     <t>5.6нФ</t>
@@ -538,11 +571,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -613,276 +644,321 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="4">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
-        <v>24</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4">
         <v>18</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4">
         <v>6</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="4">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="4">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4">
         <v>6</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>52</v>
+      <c r="E23" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for dv_analog/BOM/dv_analog.xlsx
+++ b/Project Outputs for dv_analog/BOM/dv_analog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YandexDisk2\YandexDisk\OAI_NSU\Altium_projects\KVV\dv_analog\Project Outputs for dv_analog\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelemeshko-OAI\YandexDisk\OAI_NSU\Altium_projects\KVV\dv_analog\Project Outputs for dv_analog\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23295" windowHeight="16950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="dv_analog" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">dv_analog!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>Designator</t>
   </si>
@@ -44,6 +44,15 @@
     <t>Value</t>
   </si>
   <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Jumper, 2-Pin, Dual row</t>
+  </si>
+  <si>
+    <t>Jumper 2-pin</t>
+  </si>
+  <si>
     <t>X1</t>
   </si>
   <si>
@@ -53,15 +62,6 @@
     <t>PLD2-20</t>
   </si>
   <si>
-    <t>VT1</t>
-  </si>
-  <si>
-    <t>Биполярный транзистор</t>
-  </si>
-  <si>
-    <t>2Т3117А/ПК "ОСМ"</t>
-  </si>
-  <si>
     <t>VD1</t>
   </si>
   <si>
@@ -71,16 +71,7 @@
     <t>BAV70</t>
   </si>
   <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>Источник опорного напряжения</t>
-  </si>
-  <si>
-    <t>ADR390</t>
-  </si>
-  <si>
-    <t>U1, U2, U3, U4, U5, U6</t>
+    <t>U2, U3, U4, U5, U6, U7</t>
   </si>
   <si>
     <t>Операционный усилитель</t>
@@ -89,6 +80,15 @@
     <t>ADA4530</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Матрица транзисторная</t>
+  </si>
+  <si>
+    <t>2ТС622А1 OC</t>
+  </si>
+  <si>
     <t>RK1, RK2</t>
   </si>
   <si>
@@ -101,7 +101,7 @@
     <t>1000</t>
   </si>
   <si>
-    <t>R83</t>
+    <t>R26, R45, R64, R83, R102, R121</t>
   </si>
   <si>
     <t>SMD-резистор</t>
@@ -110,51 +110,87 @@
     <t>ОСМ Р1-12</t>
   </si>
   <si>
+    <t>110k</t>
+  </si>
+  <si>
+    <t>R20, R39, R58, R77, R96, R115</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R17, R24, R36, R43, R55, R62, R74, R81, R93, R100, R112, R119</t>
+  </si>
+  <si>
+    <t>200к</t>
+  </si>
+  <si>
+    <t>R15, R22, R34, R41, R53, R60, R72, R79, R91, R98, R110, R117</t>
+  </si>
+  <si>
+    <t>13k</t>
+  </si>
+  <si>
+    <t>R13, R18, R32, R37, R51, R56, R70, R75, R89, R94, R108, R113</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>R11, R16, R23, R30, R35, R42, R49, R54, R61, R68, R73, R80, R87, R92, R99, R106, R111, R118</t>
+  </si>
+  <si>
+    <t>51k</t>
+  </si>
+  <si>
+    <t>R10, R14, R21, R25, R29, R33, R40, R44, R48, R52, R59, R63, R67, R71, R78, R82, R86, R90, R97, R101, R105, R109, R116, R120</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R9, R12, R19, R28, R31, R38, R47, R50, R57, R66, R69, R76, R85, R88, R95, R104, R107, R114</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R8, R27, R46, R65, R84, R103</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
     <t>3k3</t>
   </si>
   <si>
-    <t>R16, R79, R80, R82</t>
+    <t>R1, R2, R5</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
-    <t>R13, R26, R39, R52, R65, R78</t>
-  </si>
-  <si>
-    <t>64k</t>
-  </si>
-  <si>
-    <t>R8, R12, R21, R25, R34, R38, R47, R51, R60, R64, R73, R77</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>R7, R11, R20, R24, R33, R37, R46, R50, R59, R63, R72, R76</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>R5, R6, R10, R18, R19, R23, R31, R32, R36, R44, R45, R49, R57, R58, R62, R70, R71, R75</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>R3, R4, R9, R16, R17, R22, R29, R30, R35, R42, R43, R48, R55, R56, R61, R68, R69, R74</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>R1, R2, R14, R15, R27, R28, R40, R41, R53, R54, R66, R67</t>
-  </si>
-  <si>
-    <t>10M</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -167,15 +203,6 @@
     <t>1мкГн</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>Одностабильное неполяризованное герконовое реле</t>
-  </si>
-  <si>
-    <t>РЭС55А РС4.569.600-04 "ОСМ"</t>
-  </si>
-  <si>
     <t>DA1, DA2, DA3, DA4, DA5, DA6</t>
   </si>
   <si>
@@ -185,7 +212,7 @@
     <t>1487УД2У "ВП"</t>
   </si>
   <si>
-    <t>C50, C51, C52</t>
+    <t>C88</t>
   </si>
   <si>
     <t>SMD-конденсатор</t>
@@ -194,31 +221,61 @@
     <t>К10-79</t>
   </si>
   <si>
+    <t>10мкФ</t>
+  </si>
+  <si>
+    <t>C15, C27, C39, C51, C63, C75</t>
+  </si>
+  <si>
+    <t>360 пФ</t>
+  </si>
+  <si>
+    <t>C13, C25, C37, C49, C61, C73</t>
+  </si>
+  <si>
+    <t>0,1 мкФ</t>
+  </si>
+  <si>
+    <t>C12, C24, C36, C48, C60, C72</t>
+  </si>
+  <si>
+    <t>10 пФ</t>
+  </si>
+  <si>
+    <t>C10, C14, C22, C26, C34, C38, C46, C50, C58, C62, C70, C74</t>
+  </si>
+  <si>
+    <t>1 нФ</t>
+  </si>
+  <si>
+    <t>C9, C21, C33, C45, C57, C69</t>
+  </si>
+  <si>
+    <t>0.1 мкФ</t>
+  </si>
+  <si>
+    <t>C6, C18, C30, C42, C54, C66</t>
+  </si>
+  <si>
+    <t>150пФ</t>
+  </si>
+  <si>
+    <t>C5, C7, C8, C11, C17, C19, C20, C23, C29, C31, C32, C35, C41, C43, C44, C47, C53, C55, C56, C59, C65, C67, C68, C71</t>
+  </si>
+  <si>
+    <t>10 мкФ</t>
+  </si>
+  <si>
+    <t>C4, C16, C28, C40, C52, C64</t>
+  </si>
+  <si>
+    <t>2.2нФ</t>
+  </si>
+  <si>
+    <t>C1, C2, C3</t>
+  </si>
+  <si>
     <t>22мкФ</t>
-  </si>
-  <si>
-    <t>C5, C7, C13, C15, C21, C23, C29, C31, C37, C39, C45, C47</t>
-  </si>
-  <si>
-    <t>1 мкФ</t>
-  </si>
-  <si>
-    <t>C3, C6, C8, C11, C14, C16, C19, C22, C24, C27, C30, C32, C35, C38, C40, C43, C46, C48</t>
-  </si>
-  <si>
-    <t>0,22мкФ</t>
-  </si>
-  <si>
-    <t>C2, C4, C10, C12, C18, C20, C26, C28, C34, C36, C42, C44, C49</t>
-  </si>
-  <si>
-    <t>0,1 мкФ</t>
-  </si>
-  <si>
-    <t>C1, C9, C17, C25, C33, C41</t>
-  </si>
-  <si>
-    <t>5.6нФ</t>
   </si>
 </sst>
 </file>
@@ -278,16 +335,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -568,10 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,386 +632,557 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="E31" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="4">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="E32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="4">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="4">
-        <v>18</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="4">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="4">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>63</v>
+      <c r="E33" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Outputs for dv_analog/BOM/dv_analog.xlsx
+++ b/Project Outputs for dv_analog/BOM/dv_analog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26115" windowHeight="15345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26100" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="dv_analog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>Designator</t>
   </si>
@@ -116,58 +116,64 @@
     <t>R24, R43, R62, R81, R100, R119</t>
   </si>
   <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R23, R42, R61, R80, R99, R118</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R22, R41, R60, R79, R98, R117</t>
+  </si>
+  <si>
+    <t>NU*</t>
+  </si>
+  <si>
+    <t>R20, R39, R58, R77, R96, R115</t>
+  </si>
+  <si>
+    <t>5к</t>
+  </si>
+  <si>
+    <t>R17, R36, R55, R74, R93, R112</t>
+  </si>
+  <si>
     <t>110k</t>
   </si>
   <si>
-    <t>R22, R41, R60, R79, R98, R117</t>
+    <t>R15, R34, R53, R72, R91, R110</t>
   </si>
   <si>
     <t>22k</t>
   </si>
   <si>
-    <t>R17, R36, R55, R74, R93, R112</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>R16, R35, R54, R73, R92, R111</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R15, R34, R53, R72, R91, R110</t>
-  </si>
-  <si>
-    <t>NU*</t>
-  </si>
-  <si>
-    <t>R13, R20, R32, R39, R51, R58, R70, R77, R89, R96, R108, R115</t>
-  </si>
-  <si>
-    <t>200к</t>
+    <t>R14, R21, R33, R40, R52, R59, R71, R78, R90, R97, R109, R116</t>
+  </si>
+  <si>
+    <t>13k3</t>
+  </si>
+  <si>
+    <t>R13, R32, R51, R70, R89, R108</t>
+  </si>
+  <si>
+    <t>20к</t>
   </si>
   <si>
     <t>R12, R19, R31, R38, R50, R57, R69, R76, R88, R95, R107, R114</t>
   </si>
   <si>
-    <t>2k15</t>
-  </si>
-  <si>
-    <t>R11, R14, R18, R21, R30, R33, R37, R40, R49, R52, R56, R59, R68, R71, R75, R78, R87, R90, R94, R97, R106, R109, R113, R116</t>
-  </si>
-  <si>
-    <t>3k9</t>
-  </si>
-  <si>
-    <t>R10, R29, R48, R67, R86, R105</t>
-  </si>
-  <si>
-    <t>51k</t>
-  </si>
-  <si>
-    <t>R8, R9, R23, R27, R28, R42, R46, R47, R61, R65, R66, R80, R84, R85, R99, R103, R104, R118</t>
+    <t>8k2</t>
+  </si>
+  <si>
+    <t>R11, R18, R30, R37, R49, R56, R68, R75, R87, R94, R106, R113</t>
+  </si>
+  <si>
+    <t>27k</t>
+  </si>
+  <si>
+    <t>R8, R9, R16, R27, R28, R35, R46, R47, R54, R65, R66, R73, R84, R85, R92, R103, R104, R111</t>
   </si>
   <si>
     <t>330</t>
@@ -182,7 +188,13 @@
     <t>R6</t>
   </si>
   <si>
-    <t>2k</t>
+    <t>4k7</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>3k6</t>
   </si>
   <si>
     <t>R4</t>
@@ -194,10 +206,10 @@
     <t>R3</t>
   </si>
   <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>R1, R2, R5</t>
+    <t>1k6</t>
+  </si>
+  <si>
+    <t>R1, R2, R10, R29, R48, R67, R86, R105</t>
   </si>
   <si>
     <t>1k</t>
@@ -224,15 +236,21 @@
     <t>К10-79</t>
   </si>
   <si>
+    <t>4.7 пФ</t>
+  </si>
+  <si>
+    <t>C16_dv_analog_interface_ch1, C16_dv_analog_interface_ch2, C16_dv_analog_interface_ch3, C16_dv_analog_interface_ch4, C16_dv_analog_interface_ch5, C16_dv_analog_interface_ch6</t>
+  </si>
+  <si>
+    <t>10 нФ</t>
+  </si>
+  <si>
+    <t>C13, C26, C39, C52, C65, C78</t>
+  </si>
+  <si>
     <t>24 пФ</t>
   </si>
   <si>
-    <t>C13, C26, C39, C52, C65, C78</t>
-  </si>
-  <si>
-    <t>4.7 пФ</t>
-  </si>
-  <si>
     <t>C12, C16, C25, C29, C38, C42, C51, C55, C64, C68, C77, C81</t>
   </si>
   <si>
@@ -242,7 +260,7 @@
     <t>C9, C22, C35, C48, C61, C74</t>
   </si>
   <si>
-    <t>150пФ</t>
+    <t>8200пФ</t>
   </si>
   <si>
     <t>C7, C8, C10, C11, C14, C15, C18, C19, C20, C21, C23, C24, C27, C28, C31, C32, C33, C34, C36, C37, C40, C41, C44, C45, C46, C47, C49, C50, C53, C54, C57, C58, C59, C60, C62, C63, C66, C67, C70, C71, C72, C73, C75, C76, C79, C80, C83, C84</t>
@@ -616,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="D15" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -896,7 +914,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -913,7 +931,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -930,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -947,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -1015,7 +1033,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -1026,38 +1044,38 @@
         <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>63</v>
@@ -1066,24 +1084,24 @@
         <v>64</v>
       </c>
       <c r="D27" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D28" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1094,10 +1112,10 @@
         <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1">
         <v>6</v>
@@ -1111,13 +1129,13 @@
         <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1128,13 +1146,13 @@
         <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1145,33 +1163,84 @@
         <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="1">
+        <v>48</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>81</v>
+      <c r="E36" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
